--- a/KETCHUP_main/example/data/FDH_mechanism.xlsx
+++ b/KETCHUP_main/example/data/FDH_mechanism.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjack\DOCUME~1\MobaXterm\slash\RemoteFiles\527074_2_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjack\DOCUME~1\MobaXterm\slash\RemoteFiles\1182136_3_21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248642D6-4115-4CEB-AD9B-802F72F726DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA8D91E-022E-42B6-B16A-5F8F11DB12A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="3840" windowWidth="17220" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="795" windowWidth="23115" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -78,10 +78,16 @@
     <t>nadh</t>
   </si>
   <si>
-    <t>nad</t>
-  </si>
-  <si>
     <t>nadh;co2</t>
+  </si>
+  <si>
+    <t>rate law</t>
+  </si>
+  <si>
+    <t>KCAT[f] * [E] * [nad] * [hco2] / (KI[nad]*KM[hco2] + KM[hco2]*[nad] + KM[nad]*[hco2] + [nad]*[hco2]+KI[nad]*KM[hco2]/KI[nadh]*[nadh] + KM[nad]/KM[nadh]*[hco2]*[nadh])</t>
+  </si>
+  <si>
+    <t>KCONS[nadh]*[nadh]</t>
   </si>
 </sst>
 </file>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +451,7 @@
     <col min="5" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +482,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -488,12 +497,6 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="I2">
@@ -502,8 +505,11 @@
       <c r="J2">
         <v>0</v>
       </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -518,6 +524,9 @@
       </c>
       <c r="J3">
         <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
